--- a/ta/Pairs.xlsx
+++ b/ta/Pairs.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="33">
   <si>
     <t>-</t>
   </si>
@@ -228,7 +228,105 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
+  <dxfs count="23">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1132,10 +1230,10 @@
     <mergeCell ref="G1:J1"/>
   </mergeCells>
   <conditionalFormatting sqref="E3:J14">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1341,10 +1439,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F10">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1445,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1463,7 +1561,7 @@
     <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1492,7 +1590,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>9</v>
       </c>
@@ -1515,7 +1613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -1541,8 +1639,11 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>9</v>
       </c>
@@ -1568,8 +1669,11 @@
       <c r="I4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1593,8 +1697,11 @@
       <c r="I5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1622,8 +1729,11 @@
       <c r="I6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1651,8 +1761,11 @@
       <c r="I7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1680,8 +1793,11 @@
       <c r="I8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1705,8 +1821,11 @@
       <c r="I9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1734,8 +1853,11 @@
       <c r="I10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1763,8 +1885,11 @@
       <c r="I11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1792,13 +1917,16 @@
       <c r="I12" t="s">
         <v>1</v>
       </c>
+      <c r="J12" t="s">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F2:I12">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+  <conditionalFormatting sqref="F2:I12 J9:J12 J2:J4">
+    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ta/Pairs.xlsx
+++ b/ta/Pairs.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9945" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9945" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Characteristics" sheetId="2" r:id="rId1"/>
-    <sheet name="Authed can view" sheetId="1" r:id="rId2"/>
-    <sheet name="Anon can view" sheetId="3" r:id="rId3"/>
-    <sheet name="Authed can create" sheetId="5" r:id="rId4"/>
-    <sheet name="Anon can create" sheetId="6" r:id="rId5"/>
+    <sheet name="Anon can create" sheetId="6" r:id="rId2"/>
+    <sheet name="Authed can create" sheetId="5" r:id="rId3"/>
+    <sheet name="Anon can view" sheetId="3" r:id="rId4"/>
+    <sheet name="Authed can view" sheetId="1" r:id="rId5"/>
     <sheet name="Passwords" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -214,9 +214,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -224,109 +221,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <fill>
         <patternFill>
@@ -372,27 +274,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -688,18 +569,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="G1" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -728,19 +609,19 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
       <c r="G3" t="s">
@@ -754,19 +635,19 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="4" t="s">
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="G4" t="s">
@@ -780,13 +661,13 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -799,450 +680,96 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:A3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="G1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="J2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H3" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="H13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="H14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G1:J1"/>
-  </mergeCells>
-  <conditionalFormatting sqref="E3:J14">
-    <cfRule type="cellIs" dxfId="19" priority="1" operator="equal">
-      <formula>"-"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="2" operator="equal">
-      <formula>"+"</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="5"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1278,171 +805,171 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="5"/>
+      <c r="E2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
+      <c r="E4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F5" s="4" t="s">
+      <c r="E5" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="B7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="7" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F9" s="4" t="s">
+      <c r="E9" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E2:F10">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1450,94 +977,448 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B6"/>
+      <selection activeCell="A2" sqref="A2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="I2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="J2" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="5"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="B10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>10</v>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="C12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G1:J1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E3:J14">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>"-"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"+"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1545,7 +1426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
@@ -1594,11 +1475,11 @@
       <c r="A2" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="4"/>
       <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="4"/>
       <c r="E2" t="s">
         <v>9</v>
       </c>
@@ -1608,7 +1489,7 @@
       <c r="G2" t="s">
         <v>0</v>
       </c>
-      <c r="H2" s="5"/>
+      <c r="H2" s="4"/>
       <c r="I2" t="s">
         <v>0</v>
       </c>
@@ -1617,7 +1498,7 @@
       <c r="A3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="4"/>
       <c r="C3" t="s">
         <v>10</v>
       </c>
@@ -1647,7 +1528,7 @@
       <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="4"/>
       <c r="C4" t="s">
         <v>10</v>
       </c>
@@ -1683,7 +1564,7 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="4"/>
       <c r="E5" t="s">
         <v>10</v>
       </c>
@@ -1693,7 +1574,7 @@
       <c r="G5" t="s">
         <v>0</v>
       </c>
-      <c r="H5" s="5"/>
+      <c r="H5" s="4"/>
       <c r="I5" t="s">
         <v>0</v>
       </c>
@@ -1807,7 +1688,7 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="5"/>
+      <c r="D9" s="4"/>
       <c r="E9" t="s">
         <v>10</v>
       </c>
@@ -1817,7 +1698,7 @@
       <c r="G9" t="s">
         <v>0</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="4"/>
       <c r="I9" t="s">
         <v>0</v>
       </c>
@@ -1923,10 +1804,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="F2:I12 J9:J12 J2:J4">
-    <cfRule type="cellIs" dxfId="15" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>"-"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>"+"</formula>
     </cfRule>
   </conditionalFormatting>
